--- a/FordKa_ResultsA.xlsx
+++ b/FordKa_ResultsA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pwpro\git\CMU_Projects\Marketing_Analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D6D81D-FD47-4C03-906D-5F879A96F2D6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC006BD-BA4F-47B0-8CDA-97637F7828ED}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="21954" windowHeight="11982" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
